--- a/HackerRankChallangesSheet.xlsx
+++ b/HackerRankChallangesSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>HackerRank Challenges Sheet.</t>
   </si>
@@ -105,6 +105,63 @@
   </si>
   <si>
     <t>Calculate by if else and divide by length of array and use toFixed.</t>
+  </si>
+  <si>
+    <t>https://github.com/zubair480/hackerRank/blob/main/HackerRankChallanges/2.MiniMaxSum.js</t>
+  </si>
+  <si>
+    <t>MiniMaxSum</t>
+  </si>
+  <si>
+    <t>Calculate sum using reduce and minus minimum and maximum numbar</t>
+  </si>
+  <si>
+    <t>Time Conversion</t>
+  </si>
+  <si>
+    <t>Split the string and check PM using setsubstring method, add 12 in pm time and 0 in &gt;10.</t>
+  </si>
+  <si>
+    <t>Lonely Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will use XOR to find lonely integer </t>
+  </si>
+  <si>
+    <t>Diognal Difference</t>
+  </si>
+  <si>
+    <t>find first diogmal by starting from index zero and array zero and increasing both by one. And reverse it by decreasing with the total length -1.</t>
+  </si>
+  <si>
+    <t>Counting sort 1</t>
+  </si>
+  <si>
+    <t>First overwrite the array by fill method and then use forEach to count each item.</t>
+  </si>
+  <si>
+    <t>Tower Breaker</t>
+  </si>
+  <si>
+    <t>If height(m) iz zero or even player two will win otherwise player one will win</t>
+  </si>
+  <si>
+    <t>Ceaser ciper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a string with abc and a new empty string. Then use for loop and send matching alphabets to newStr also apply relevent checks. </t>
+  </si>
+  <si>
+    <t>Grid Challenge</t>
+  </si>
+  <si>
+    <t>Create a new array and split,sort,push items of grid and check if the first item is greater then second so return no otherwise yes</t>
+  </si>
+  <si>
+    <t>Super Digit</t>
+  </si>
+  <si>
+    <t>Find the sum of number and then multiply it with k, then check if n&gt;1 or re call the function.</t>
   </si>
 </sst>
 </file>
@@ -156,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,7 +222,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,65 +514,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="38.08984375" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -520,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -532,6 +598,143 @@
       </c>
       <c r="D5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
